--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -3081,7 +3081,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">

--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2564,7 +2564,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve">12:30 PM START </t>
+          <t xml:space="preserve">11:30 AM START </t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2603,12 +2603,13 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2662,12 +2663,13 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2717,13 +2719,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2769,13 +2770,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2963,7 +2963,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Meet at 12:00 PM</t>
+          <t>Meet at 11:15 AM</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3339,21 +3339,9 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3414,21 +3402,9 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3482,7 +3458,11 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3537,7 +3517,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3586,7 +3570,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>LAKHBIR CLOSING INVENTORY</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3641,7 +3625,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>REFUEL PANTRY, AMERICAN WORLD BP, WISCONSIN DELLS</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3688,7 +3672,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>2040 WISCONSIN DELLS PKWY</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3719,7 +3703,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>https://maps.app.goo.gl/PKdQdSh8GnSXD4vcA</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3748,11 +3732,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3778,13 +3758,21 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3809,13 +3797,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>@ Store (Driver)</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3840,9 +3836,21 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3867,21 +3875,9 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3906,22 +3902,9 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -3946,14 +3929,10 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3981,14 +3960,10 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4016,21 +3991,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4042,6 +4009,345 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1730 S WEST ST</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -3215,7 +3215,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">

--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3339,9 +3339,21 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3458,11 +3470,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3519,7 +3527,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3570,7 +3578,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>LAKHBIR CLOSING INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3625,7 +3633,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>REFUEL PANTRY, AMERICAN WORLD BP, WISCONSIN DELLS</t>
+          <t>LAKHBIR CLOSING INVENTORY</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3672,7 +3680,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2040 WISCONSIN DELLS PKWY</t>
+          <t>REFUEL PANTRY, AMERICAN WORLD BP, WISCONSIN DELLS</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3703,7 +3711,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/PKdQdSh8GnSXD4vcA</t>
+          <t>2040 WISCONSIN DELLS PKWY</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3732,7 +3740,11 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/PKdQdSh8GnSXD4vcA</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3758,21 +3770,9 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3799,17 +3799,17 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store (Driver)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3838,17 +3838,17 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>@ Store (Driver)</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -3875,9 +3875,21 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3930,11 +3942,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3963,7 +3971,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3994,7 +4002,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4025,7 +4033,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1730 S WEST ST</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4056,7 +4064,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4087,7 +4095,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4118,7 +4126,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4147,7 +4155,11 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -4173,21 +4185,9 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -4214,18 +4214,17 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P77" t="inlineStr"/>
@@ -4254,15 +4253,20 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4289,12 +4293,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4324,19 +4328,15 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -4348,6 +4348,45 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -2196,7 +2196,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>

--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -756,7 +756,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MARIANO'S #503, CHICAGO - LAKESHORE EAST</t>
+          <t>LAKHBIR CLOSING INVENTORY</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -803,7 +803,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>333 EAST BENTON PL, SUITE 206</t>
+          <t>REFUEL PANTRY, AMERICAN WORLD BP, WISCONSIN DELLS</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -850,7 +850,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Gwa8pwADYxr</t>
+          <t>2040 WISCONSIN DELLS PKWY</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -893,7 +893,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://maps.app.goo.gl/PKdQdSh8GnSXD4vcA</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -942,11 +942,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #6 LOWER LEVEL</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1004,13 +1000,21 @@
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NEED TO PAY FOR PARKING AT THIS SITE!</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1060,9 +1064,21 @@
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1135,17 +1151,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1219,22 +1235,9 @@
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1295,16 +1298,8 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
@@ -1366,22 +1361,13 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1440,14 +1426,10 @@
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1508,14 +1490,10 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1572,14 +1550,10 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>1730 S WEST ST</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1619,14 +1593,10 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>https://goo.gl/maps/2ZXywmPJqto</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1670,22 +1640,13 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -1735,14 +1696,10 @@
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1796,22 +1753,9 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -1858,7 +1802,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1866,7 +1810,11 @@
           <t>Qiana</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store, Camry 3</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -1917,12 +1865,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1974,9 +1922,22 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2025,8 +1986,16 @@
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2064,10 +2033,14 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2108,11 +2081,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2155,11 +2124,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2204,7 +2169,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2518 W WASHINGTON STREET</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2247,7 +2212,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2296,7 +2261,11 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2351,21 +2320,13 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>321 N ALPINE ROAD</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -2419,21 +2380,13 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -2470,26 +2423,18 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>?? AM START</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2537,21 +2482,9 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2598,25 +2531,24 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>POSSIBLE NEW ACCOUNT HERE</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2658,27 +2590,18 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>321 N ALPINE ROAD</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2714,24 +2637,20 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2765,24 +2684,20 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2820,22 +2735,22 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2871,35 +2786,23 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
@@ -2934,30 +2837,18 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -2993,30 +2884,18 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3046,32 +2925,12 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3109,32 +2968,12 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
@@ -3180,32 +3019,12 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
@@ -3259,32 +3078,12 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
@@ -3339,32 +3138,12 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
@@ -3525,11 +3304,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3576,11 +3351,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3631,11 +3402,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>LAKHBIR CLOSING INVENTORY</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3678,11 +3445,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>REFUEL PANTRY, AMERICAN WORLD BP, WISCONSIN DELLS</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3695,698 +3458,6 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>2040 WISCONSIN DELLS PKWY</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/PKdQdSh8GnSXD4vcA</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store (Driver)</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store w/ Lori</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>KELLEY #17, FREEPORT MOBIL (SOUTH)</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>1730 S WEST ST</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2ZXywmPJqto</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-18-25 to 05-24-25 Madison Schedule.xlsx
+++ b/05-18-25 to 05-24-25 Madison Schedule.xlsx
@@ -2432,11 +2432,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>?? AM START</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2487,11 +2483,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2546,11 +2538,7 @@
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>POSSIBLE NEW ACCOUNT HERE</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2648,11 +2636,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -2695,11 +2679,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2746,11 +2726,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2797,11 +2773,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
